--- a/bi_sales_052025/data/Export Bestellmengen & Werte.xlsx
+++ b/bi_sales_052025/data/Export Bestellmengen & Werte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bilthousegmbh-my.sharepoint.com/personal/j_hilgemann_bilthouse_com/Documents/Desktop/projects/bi_sales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bilthousegmbh-my.sharepoint.com/personal/j_hilgemann_bilthouse_com/Documents/Desktop/projects/bi_sales_052025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="11_1B3343722525411C6CE00434C0850E74508D3872" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D2144F-CDBC-431C-B182-5F904C7BD233}"/>
